--- a/resources/testData/Data.xlsx
+++ b/resources/testData/Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>absfdgfd</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>gjgjgjg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                    aaa</t>
+  </si>
+  <si>
+    <t>ahshshssh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,11 +761,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+    <row r="7" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -768,7 +782,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="8"/>
+      <c r="M7" s="8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
